--- a/数据整理/stocks/A股/深证主板/002078-太阳纸业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002078-太阳纸业.xlsx
@@ -451,1499 +451,2029 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>51.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5445</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005267</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实价值精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1876</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>121005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银创新动力混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7650</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>070010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实主题精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>34.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3062</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1604</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>070019</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9584</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9509</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8223</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>74.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7668</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6411</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010190</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实价值发现三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5946</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000574</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5774</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001712</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方红优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.27</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5497</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>121006</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国投瑞银稳健增长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>72.13</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5351</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>920002</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中金精选股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4525</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004355</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3722</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009885</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>新华景气行业混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.42</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>46.37</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3533</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3503</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519158</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>新华趋势领航混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3347</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3315</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3315</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>501038</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华明择多策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.49</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3185</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>121002</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国投瑞银景气行业混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>71.48</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3044</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009843</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中金泰顺12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>61.34</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3020</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003715</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>宝盈消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2888</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2751</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000584</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>新华鑫益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2733</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
           <t>519091</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>新华泛资源优势混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>79.97</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>4.11</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2511</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001712</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>东方红优势精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>93.44</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519089</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>新华优选成长混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2501</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>121008</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国投瑞银成长优选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2335</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001577</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实低价策略股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1325</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005660</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1139</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008303</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>宝盈龙头优选股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0901</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005661</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001887</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中欧价值智选回报混合E</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>92.55</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005910</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发龙头优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006675</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>21.51</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009886</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>新华景气行业混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>46.37</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000739</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>83.44</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>920922</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中金精选股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>21.51</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>166019</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中欧价值智选回报混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>92.55</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001577</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>嘉实低价策略股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>93.28</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006676</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001515</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>83.44</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008304</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>宝盈龙头优选股票C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007574</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>121006</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国投瑞银稳健增长混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>72.13</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>5.33</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>700004</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>77.44</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>070019</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>嘉实价值优势混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>121005</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国投瑞银创新动力混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>87.08</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>6.52</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>161219</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>国投瑞银新兴产业混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>74.23</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>5.45</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>010190</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>嘉实价值发现三个月定期开放混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>98.35</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>002598</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>平安消费精选混合A</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
         <is>
           <t>90.92</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>3.05</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>002599</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>平安消费精选混合C</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
         <is>
           <t>90.92</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>3.05</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>519089</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>新华优选成长混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>91.73</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>121002</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>国投瑞银景气行业混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>71.48</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>121008</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>国投瑞银成长优选混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>90.42</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001044</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>嘉实新消费股票</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>93.66</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>5.46</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>002621</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>中欧消费主题股票A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>92.14</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>8.78</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>002697</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>中欧消费主题股票C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>92.14</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>8.78</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>006675</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>宝盈品牌消费股票A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>9.01</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>006676</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>宝盈品牌消费股票C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>9.01</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>519158</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>新华趋势领航混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>94.31</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>009843</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>中金泰顺12个月定期开放混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>61.34</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>005620</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>中欧品质消费股票A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>92.22</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>9.08</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>005621</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>中欧品质消费股票C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>92.22</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>9.08</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>005660</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>嘉实资源精选股票A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>93.93</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>5.04</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>005661</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>嘉实资源精选股票C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>93.93</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>5.04</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>070010</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>嘉实主题精选混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>92.95</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>700001</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>平安行业先锋混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>92.42</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>000574</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>宝盈新价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>8.02</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>000584</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>新华鑫益灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>93.40</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>000739</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>平安新鑫先锋混合A</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>83.44</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>001218</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>国投瑞银精选收益灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>86.88</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>5.56</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>001515</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>平安新鑫先锋混合C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>83.44</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>005267</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>嘉实价值精选股票</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>90.79</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>008303</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>宝盈龙头优选股票A</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>90.42</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>008304</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>宝盈龙头优选股票C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>90.42</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>004235</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>中欧价值智选回报混合C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>92.55</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>003626</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>平安鑫利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>21.51</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>003715</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>宝盈消费主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>93.78</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>8.86</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>920002</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>中金精选股票A</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>90.40</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>7.98</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>920922</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>中金精选股票C</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>90.40</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>7.98</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>700004</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>平安灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>77.44</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>005910</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>广发龙头优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>94.10</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>006433</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>平安鑫利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>21.51</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>006624</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>中泰玉衡价值优选混合</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>81.24</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>007574</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>宝盈新价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>8.02</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>004814</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>中欧红利优享灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>004815</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>中欧红利优享灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>501038</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>银华明择多策略定期开放混合</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>84.49</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>5.91</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>009885</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>新华景气行业混合A</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>46.37</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>009886</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>新华景气行业混合C</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>46.37</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>004355</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>嘉实丰和灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>90.57</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1953,7 +2483,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F97"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1974,15 +2504,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1994,25 +2534,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001736</t>
+          <t>005267</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>圆信永丰优加生活股票</t>
+          <t>嘉实价值精选股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.55</t>
+          <t>89.31</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.4476</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2022,26 +2572,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003715</t>
+          <t>010273</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>宝盈消费主题灵活配置混合</t>
+          <t>嘉实价值长青混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.16</t>
+          <t>77.96</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7.77</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>83.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.2332</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2050,26 +2610,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519091</t>
+          <t>910007</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>新华泛资源优势混合</t>
+          <t>东方红启元三年持有期混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>76.95</t>
+          <t>83.78</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.8234</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2078,26 +2648,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004913</t>
+          <t>007887</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中银证券聚瑞混合A</t>
+          <t>东方红启元三年持有期混合B</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>27.10</t>
+          <t>70.65</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3809</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -2106,26 +2686,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004914</t>
+          <t>501189</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中银证券聚瑞混合C</t>
+          <t>嘉实3年封闭运作战略配售灵活配置混合(LOF)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>27.10</t>
+          <t>146.49</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>31.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1241</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -2134,26 +2724,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001712</t>
+          <t>590002</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>东方红优势精选灵活配置混合</t>
+          <t>中邮核心成长混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.68</t>
+          <t>53.06</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>82.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.8253</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -2162,26 +2762,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002906</t>
+          <t>010659</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>南方中证500量化增强股票A</t>
+          <t>民生加银质量领先混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>91.05</t>
+          <t>46.55</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>53.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.7503</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -2190,26 +2800,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002907</t>
+          <t>001878</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>南方中证500量化增强股票C</t>
+          <t>嘉实沪港深精选股票</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>91.05</t>
+          <t>39.94</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.7294</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -2218,26 +2838,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001878</t>
+          <t>166019</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>嘉实沪港深精选股票</t>
+          <t>中欧价值智选回报混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>91.73</t>
+          <t>38.31</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.6052</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -2246,26 +2876,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001887</t>
+          <t>121005</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中欧价值智选回报混合E</t>
+          <t>国投瑞银创新动力混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>90.63</t>
+          <t>21.45</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
+          <t>84.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.5894</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -2274,26 +2914,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>166019</t>
+          <t>070010</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中欧价值智选回报混合A</t>
+          <t>嘉实主题精选混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>90.63</t>
+          <t>31.71</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.5253</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -2302,26 +2952,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>004235</t>
+          <t>010338</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中欧价值智选回报混合C</t>
+          <t>国投瑞银远见成长混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>90.63</t>
+          <t>19.28</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
+          <t>59.35</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.4421</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -2330,26 +2990,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>690005</t>
+          <t>070019</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>民生加银内需增长混合</t>
+          <t>嘉实价值优势混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>89.85</t>
+          <t>24.92</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.2684</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -2358,26 +3028,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>004958</t>
+          <t>010190</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>圆信永丰优享生活灵活配置混合</t>
+          <t>嘉实价值发现三个月定期开放混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>90.74</t>
+          <t>22.60</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>4</v>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.1413</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -2386,26 +3066,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001577</t>
+          <t>004477</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>嘉实低价策略股票</t>
+          <t>嘉实沪港深回报混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>81.02</t>
+          <t>20.79</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>7</v>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9688</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -2414,26 +3104,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>121006</t>
+          <t>001044</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>国投瑞银稳健增长混合</t>
+          <t>嘉实新消费股票</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>74.70</t>
+          <t>12.87</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>6.19</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>3</v>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8958</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -2442,26 +3142,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>871003</t>
+          <t>169107</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>广发资管价值增长灵活配置混合</t>
+          <t>东方红恒阳五年定期开放混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>75.78</t>
+          <t>26.46</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>8</v>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8891</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -2470,26 +3180,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>920008</t>
+          <t>070003</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中金进取回报灵活配置混合A</t>
+          <t>嘉实稳健混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>40.18</t>
+          <t>27.98</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>6</v>
+          <t>67.31</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8086</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -2498,26 +3218,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>920928</t>
+          <t>001736</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>中金进取回报灵活配置混合C</t>
+          <t>圆信永丰优加生活股票</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>40.18</t>
+          <t>37.98</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>6</v>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7558</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -2526,26 +3256,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>005589</t>
+          <t>000408</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>长信企业精选两年定期开放灵活配置混合</t>
+          <t>民生加银城镇化混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>45.49</t>
+          <t>14.03</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>5</v>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6987</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -2554,26 +3294,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>070019</t>
+          <t>009885</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>嘉实价值优势混合</t>
+          <t>新华景气行业混合A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>93.12</t>
+          <t>16.03</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5.09</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>8</v>
+          <t>81.78</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6893</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -2582,25 +3332,35 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>121005</t>
+          <t>161219</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>国投瑞银创新动力混合</t>
+          <t>国投瑞银新兴产业混合(LOF)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>84.97</t>
+          <t>10.79</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>7.41</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
+          <t>73.49</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6690</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2610,25 +3370,35 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>161219</t>
+          <t>010423</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>国投瑞银新兴产业混合(LOF)</t>
+          <t>国投瑞银价值成长一年持有期混合A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>73.49</t>
+          <t>8.70</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>6.20</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
+          <t>74.94</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6273</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2638,26 +3408,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>005910</t>
+          <t>001712</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>广发龙头优选灵活配置混合</t>
+          <t>东方红优势精选灵活配置混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>78.91</t>
+          <t>11.86</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5.81</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>4</v>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5883</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2666,26 +3446,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>004477</t>
+          <t>001218</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>嘉实沪港深回报混合</t>
+          <t>国投瑞银精选收益灵活配置混合</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>93.79</t>
+          <t>7.49</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>10</v>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5595</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -2694,26 +3484,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>004814</t>
+          <t>871003</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>中欧红利优享灵活配置混合A</t>
+          <t>广发资管价值增长灵活配置混合</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>90.49</t>
+          <t>11.20</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>7.67</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>2</v>
+          <t>75.78</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5286</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -2722,26 +3522,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>004815</t>
+          <t>121006</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>中欧红利优享灵活配置混合C</t>
+          <t>国投瑞银稳健增长混合</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>90.49</t>
+          <t>7.92</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>7.67</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>2</v>
+          <t>74.70</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4902</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -2750,26 +3560,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>010064</t>
+          <t>000574</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>圆信永丰兴研灵活配置混合A</t>
+          <t>宝盈新价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>92.81</t>
+          <t>6.66</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>9</v>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4715</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -2778,25 +3598,35 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>010065</t>
+          <t>010064</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>圆信永丰兴研灵活配置混合C</t>
+          <t>圆信永丰兴研灵活配置混合A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>24.14</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>92.81</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1.95</t>
         </is>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4707</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
         <v>9</v>
       </c>
     </row>
@@ -2806,26 +3636,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>005543</t>
+          <t>004958</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>银华心诚灵活配置混合</t>
+          <t>圆信永丰优享生活灵活配置混合</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>90.74</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>10</v>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4561</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -2834,25 +3674,35 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>009843</t>
+          <t>690005</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>中金泰顺12个月定期开放混合</t>
+          <t>民生加银内需增长混合</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>61.65</t>
+          <t>8.99</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4477</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2862,25 +3712,35 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>009885</t>
+          <t>004355</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>新华景气行业混合A</t>
+          <t>嘉实丰和灵活配置混合</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>81.78</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4462</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2890,26 +3750,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>009886</t>
+          <t>010274</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>新华景气行业混合C</t>
+          <t>嘉实价值长青混合C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>81.78</t>
+          <t>7.37</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>5</v>
+          <t>83.62</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4002</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -2918,26 +3788,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>000408</t>
+          <t>007731</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>民生加银城镇化混合A</t>
+          <t>民生加银持续成长混合A</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>89.11</t>
+          <t>6.32</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>10</v>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3034</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="36">
@@ -2946,25 +3826,35 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>009706</t>
+          <t>005543</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>民生加银城镇化混合C</t>
+          <t>银华心诚灵活配置混合</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>89.11</t>
+          <t>8.52</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2667</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2974,26 +3864,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>000530</t>
+          <t>121008</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>招商丰盛稳定增长灵活配置混合A</t>
+          <t>国投瑞银成长优选混合</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>91.03</t>
+          <t>6.31</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>10</v>
+          <t>84.49</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2543</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="38">
@@ -3002,26 +3902,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>002417</t>
+          <t>004235</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>招商丰盛稳定增长灵活配置混合C</t>
+          <t>中欧价值智选回报混合C</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>91.03</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>10</v>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2426</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="39">
@@ -3030,26 +3940,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>000556</t>
+          <t>501038</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>国投瑞银新机遇灵活配置混合A</t>
+          <t>银华明择多策略定期开放混合</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>20.13</t>
+          <t>5.30</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>10</v>
+          <t>74.83</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2380</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="40">
@@ -3058,26 +3978,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>000557</t>
+          <t>003715</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>国投瑞银新机遇灵活配置混合C</t>
+          <t>宝盈消费主题灵活配置混合</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>20.13</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>10</v>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2362</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -3086,26 +4016,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>000574</t>
+          <t>005660</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>宝盈新价值灵活配置混合A</t>
+          <t>嘉实资源精选股票A</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>89.63</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>7.08</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>6</v>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2356</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -3114,26 +4054,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>007574</t>
+          <t>519091</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>宝盈新价值灵活配置混合C</t>
+          <t>新华泛资源优势混合</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>89.63</t>
+          <t>5.53</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>7.08</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>6</v>
+          <t>76.95</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2284</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -3142,26 +4092,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>000584</t>
+          <t>009843</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>新华鑫益灵活配置混合</t>
+          <t>中金泰顺12个月定期开放混合</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>79.87</t>
+          <t>10.80</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>4</v>
+          <t>61.65</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2225</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="44">
@@ -3170,26 +4130,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>000739</t>
+          <t>519089</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>平安新鑫先锋混合A</t>
+          <t>新华优选成长混合</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>87.72</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>5</v>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2201</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="45">
@@ -3198,26 +4168,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>001515</t>
+          <t>121002</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>平安新鑫先锋混合C</t>
+          <t>国投瑞银景气行业混合</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>87.72</t>
+          <t>9.11</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>5</v>
+          <t>57.36</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2150</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="46">
@@ -3226,26 +4206,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>010190</t>
+          <t>005589</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>嘉实价值发现三个月定期开放混合</t>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>87.93</t>
+          <t>6.96</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>7</v>
+          <t>45.49</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2137</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="47">
@@ -3254,26 +4244,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>010273</t>
+          <t>920002</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>嘉实价值长青混合A</t>
+          <t>中金精选股票A</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>83.62</t>
+          <t>5.23</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>8</v>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2129</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="48">
@@ -3282,26 +4282,36 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>010274</t>
+          <t>000584</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>嘉实价值长青混合C</t>
+          <t>新华鑫益灵活配置混合</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>83.62</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>8</v>
+          <t>79.87</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1815</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="49">
@@ -3310,25 +4320,35 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>006675</t>
+          <t>004995</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>宝盈品牌消费股票A</t>
+          <t>广发品牌消费股票A</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>94.84</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>8.27</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1639</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3338,26 +4358,36 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>006676</t>
+          <t>003295</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>宝盈品牌消费股票C</t>
+          <t>南方安裕混合A</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>94.84</t>
+          <t>29.12</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>8.27</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>7</v>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1572</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="51">
@@ -3366,25 +4396,35 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>010338</t>
+          <t>010339</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>国投瑞银远见成长混合A</t>
+          <t>国投瑞银远见成长混合C</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
           <t>59.35</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>7.48</t>
         </is>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1518</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3394,26 +4434,36 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>010339</t>
+          <t>080015</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>国投瑞银远见成长混合C</t>
+          <t>长盛中小盘精选混合</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>59.35</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>7.48</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>2</v>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1417</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -3422,26 +4472,36 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>010423</t>
+          <t>502000</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>国投瑞银价值成长一年持有期混合A</t>
+          <t>西部利得中证500指数增强（LOF）A</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>74.94</t>
+          <t>7.83</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>7.21</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>3</v>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1268</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="54">
@@ -3450,26 +4510,36 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>010424</t>
+          <t>001577</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>国投瑞银价值成长一年持有期混合C</t>
+          <t>嘉实低价策略股票</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>74.94</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>7.21</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>3</v>
+          <t>81.02</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1212</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="55">
@@ -3478,26 +4548,36 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>001004</t>
+          <t>519093</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>新华稳健回报灵活配置混合</t>
+          <t>新华钻石品质企业混合</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>83.15</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>5</v>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1179</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="56">
@@ -3506,26 +4586,36 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>001044</t>
+          <t>920008</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>嘉实新消费股票</t>
+          <t>中金进取回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>86.38</t>
+          <t>8.73</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>6.96</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>5</v>
+          <t>40.18</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1144</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="57">
@@ -3534,26 +4624,36 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>501038</t>
+          <t>004814</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>银华明择多策略定期开放混合</t>
+          <t>中欧红利优享灵活配置混合A</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>74.83</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>6</v>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -3562,26 +4662,36 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>501189</t>
+          <t>006586</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>嘉实3年封闭运作战略配售灵活配置混合(LOF)</t>
+          <t>南方安裕混合C</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>31.32</t>
+          <t>19.30</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>8</v>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="59">
@@ -3590,26 +4700,36 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>502000</t>
+          <t>001887</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>西部利得中证500指数增强（LOF）A</t>
+          <t>中欧价值智选回报混合E</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>87.41</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>6</v>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1031</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="60">
@@ -3618,26 +4738,36 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>009300</t>
+          <t>008245</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>西部利得中证500指数增强（LOF）C</t>
+          <t>圆信永丰致优混合A</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>87.41</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
-        <v>6</v>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0941</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="61">
@@ -3646,26 +4776,36 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>010659</t>
+          <t>001004</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>民生加银质量领先混合A</t>
+          <t>新华稳健回报灵活配置混合</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>53.51</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
-        <v>3</v>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="62">
@@ -3684,15 +4824,25 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
           <t>53.51</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>3.76</t>
         </is>
       </c>
-      <c r="F62" t="n">
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3702,25 +4852,35 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>001218</t>
+          <t>005661</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>国投瑞银精选收益灵活配置混合</t>
+          <t>嘉实资源精选股票C</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>88.37</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>7.47</t>
-        </is>
-      </c>
-      <c r="F63" t="n">
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3730,26 +4890,36 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>070003</t>
+          <t>002906</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>嘉实稳健混合</t>
+          <t>南方中证500量化增强股票A</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>67.31</t>
+          <t>6.10</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
-        <v>9</v>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="65">
@@ -3758,26 +4928,36 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>070010</t>
+          <t>008303</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>嘉实主题精选混合</t>
+          <t>宝盈龙头优选股票A</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>93.09</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="F65" t="n">
-        <v>8</v>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="66">
@@ -3786,25 +4966,35 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>001499</t>
+          <t>001520</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>国投瑞银新增长灵活配置混合A</t>
+          <t>国投瑞银研究精选股票</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>22.70</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="F66" t="n">
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
         <v>10</v>
       </c>
     </row>
@@ -3814,26 +5004,36 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>007326</t>
+          <t>005910</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>国投瑞银新增长灵活配置混合C</t>
+          <t>广发龙头优选灵活配置混合</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>22.70</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="F67" t="n">
-        <v>10</v>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="68">
@@ -3842,26 +5042,36 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>001520</t>
+          <t>010424</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>国投瑞银研究精选股票</t>
+          <t>国投瑞银价值成长一年持有期混合C</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>84.27</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="F68" t="n">
-        <v>10</v>
+          <t>74.94</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="69">
@@ -3870,26 +5080,36 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>080015</t>
+          <t>009886</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>长盛中小盘精选混合</t>
+          <t>新华景气行业混合C</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>85.80</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>7.66</t>
-        </is>
-      </c>
-      <c r="F69" t="n">
-        <v>1</v>
+          <t>81.78</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="70">
@@ -3898,26 +5118,36 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>121002</t>
+          <t>000556</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>国投瑞银景气行业混合</t>
+          <t>国投瑞银新机遇灵活配置混合A</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>57.36</t>
+          <t>6.43</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="F70" t="n">
-        <v>7</v>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="71">
@@ -3926,26 +5156,36 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>121008</t>
+          <t>010065</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>国投瑞银成长优选混合</t>
+          <t>圆信永丰兴研灵活配置混合C</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>84.49</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="F71" t="n">
-        <v>7</v>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="72">
@@ -3954,26 +5194,36 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>519089</t>
+          <t>001499</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>新华优选成长混合</t>
+          <t>国投瑞银新增长灵活配置混合A</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>84.46</t>
+          <t>5.78</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="F72" t="n">
-        <v>4</v>
+          <t>22.70</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="73">
@@ -3982,26 +5232,36 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>519093</t>
+          <t>000739</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>新华钻石品质企业混合</t>
+          <t>平安新鑫先锋混合A</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>92.07</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="F73" t="n">
-        <v>6</v>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="74">
@@ -4010,26 +5270,36 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>590002</t>
+          <t>006675</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>中邮核心成长混合</t>
+          <t>宝盈品牌消费股票A</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>82.66</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="F74" t="n">
-        <v>5</v>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="75">
@@ -4038,26 +5308,36 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>005267</t>
+          <t>008246</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>嘉实价值精选股票</t>
+          <t>圆信永丰致优混合C</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>89.66</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="F75" t="n">
-        <v>7</v>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="76">
@@ -4066,26 +5346,36 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>169107</t>
+          <t>000530</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>东方红恒阳五年定期开放混合</t>
+          <t>招商丰盛稳定增长灵活配置混合A</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>85.79</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="F76" t="n">
-        <v>9</v>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="77">
@@ -4094,26 +5384,36 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>005660</t>
+          <t>010245</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>嘉实资源精选股票A</t>
+          <t>广发品牌消费股票C</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>90.15</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="F77" t="n">
-        <v>3</v>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="78">
@@ -4122,26 +5422,36 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>005661</t>
+          <t>004815</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>嘉实资源精选股票C</t>
+          <t>中欧红利优享灵活配置混合C</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>90.15</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="F78" t="n">
-        <v>3</v>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="79">
@@ -4150,26 +5460,36 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>007731</t>
+          <t>002907</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>民生加银持续成长混合A</t>
+          <t>南方中证500量化增强股票C</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>92.92</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="F79" t="n">
-        <v>9</v>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="80">
@@ -4178,26 +5498,36 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>007732</t>
+          <t>920928</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>民生加银持续成长混合C</t>
+          <t>中金进取回报灵活配置混合C</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>92.92</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="F80" t="n">
-        <v>9</v>
+          <t>40.18</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="81">
@@ -4206,26 +5536,36 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>003295</t>
+          <t>009300</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>南方安裕混合A</t>
+          <t>西部利得中证500指数增强（LOF）C</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>20.20</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="F81" t="n">
-        <v>10</v>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="82">
@@ -4234,26 +5574,36 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>006586</t>
+          <t>001515</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>南方安裕混合C</t>
+          <t>平安新鑫先锋混合C</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>20.20</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="F82" t="n">
-        <v>10</v>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="83">
@@ -4262,26 +5612,36 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>008112</t>
+          <t>007326</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>中泰中证500指数增强A</t>
+          <t>国投瑞银新增长灵活配置混合C</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>89.84</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="F83" t="n">
-        <v>3</v>
+          <t>22.70</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="84">
@@ -4290,26 +5650,36 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>008113</t>
+          <t>006676</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>中泰中证500指数增强C</t>
+          <t>宝盈品牌消费股票C</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>89.84</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="F84" t="n">
-        <v>3</v>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="85">
@@ -4318,26 +5688,36 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>008245</t>
+          <t>008304</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>圆信永丰致优混合A</t>
+          <t>宝盈龙头优选股票C</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>91.30</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="F85" t="n">
-        <v>5</v>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="86">
@@ -4346,26 +5726,36 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>008246</t>
+          <t>920922</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>圆信永丰致优混合C</t>
+          <t>中金精选股票C</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>91.30</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="F86" t="n">
-        <v>5</v>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="87">
@@ -4374,26 +5764,36 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>008303</t>
+          <t>007732</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>宝盈龙头优选股票A</t>
+          <t>民生加银持续成长混合C</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>90.85</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>6.14</t>
-        </is>
-      </c>
-      <c r="F87" t="n">
-        <v>10</v>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="88">
@@ -4402,26 +5802,36 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>008304</t>
+          <t>007574</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>宝盈龙头优选股票C</t>
+          <t>宝盈新价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>90.85</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>6.14</t>
-        </is>
-      </c>
-      <c r="F88" t="n">
-        <v>10</v>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="89">
@@ -4430,26 +5840,36 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>004355</t>
+          <t>008112</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>嘉实丰和灵活配置混合</t>
+          <t>中泰中证500指数增强A</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>85.79</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>5.17</t>
-        </is>
-      </c>
-      <c r="F89" t="n">
-        <v>5</v>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="90">
@@ -4458,26 +5878,36 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>004995</t>
+          <t>002417</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>广发品牌消费股票A</t>
+          <t>招商丰盛稳定增长灵活配置混合C</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>89.30</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="F90" t="n">
-        <v>7</v>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="91">
@@ -4486,26 +5916,36 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>010245</t>
+          <t>008113</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>广发品牌消费股票C</t>
+          <t>中泰中证500指数增强C</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>89.30</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="F91" t="n">
-        <v>7</v>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="92">
@@ -4514,25 +5954,35 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>009486</t>
+          <t>000557</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>光大保德信瑞和混合A</t>
+          <t>国投瑞银新机遇灵活配置混合C</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>63.88</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="F92" t="n">
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
         <v>10</v>
       </c>
     </row>
@@ -4542,25 +5992,35 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>009487</t>
+          <t>009486</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>光大保德信瑞和混合C</t>
+          <t>光大保德信瑞和混合A</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
           <t>63.88</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>2.43</t>
         </is>
       </c>
-      <c r="F93" t="n">
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
         <v>10</v>
       </c>
     </row>
@@ -4570,26 +6030,36 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>910007</t>
+          <t>009706</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>东方红启元三年持有期混合A</t>
+          <t>民生加银城镇化混合C</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>86.51</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="F94" t="n">
-        <v>9</v>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="95">
@@ -4598,26 +6068,36 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>007887</t>
+          <t>009487</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>东方红启元三年持有期混合B</t>
+          <t>光大保德信瑞和混合C</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>86.51</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="F95" t="n">
-        <v>9</v>
+          <t>63.88</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="96">
@@ -4626,26 +6106,36 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>920002</t>
+          <t>004913</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>中金精选股票A</t>
+          <t>中银证券聚瑞混合A</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>88.31</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="F96" t="n">
-        <v>9</v>
+          <t>27.10</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="97">
@@ -4654,26 +6144,30 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>920922</t>
+          <t>004914</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>中金精选股票C</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>88.31</t>
-        </is>
-      </c>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="F97" t="n">
-        <v>9</v>
+          <t>27.10</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002078-太阳纸业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002078-太阳纸业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6152,7 +6153,6 @@
           <t>中银证券聚瑞混合C</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
           <t>27.10</t>
@@ -6168,6 +6168,1354 @@
       </c>
       <c r="H97" t="n">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005267</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实价值精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.4840</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010273</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>68.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.5904</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>72.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4208</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011518</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实价值臻选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>44.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>71.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1584</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>070019</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>33.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6219</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001878</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>38.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4692</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>121005</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银创新动力混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7847</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7609</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001224</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中邮新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>24.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6939</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>72.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5661</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000574</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5269</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004355</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4460</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>73.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3302</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010274</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3169</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2683</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003715</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>宝盈消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2599</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>121006</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国投瑞银稳健增长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>71.73</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2422</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005660</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2239</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>920002</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中金精选股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1809</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010469</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>19.55</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1329</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.75</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1220</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005661</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008477</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>安信价值驱动三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003842</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>25.69</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.75</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010253</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>83.12</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003843</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>25.69</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011205</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>83.12</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007574</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>920922</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中金精选股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002078-太阳纸业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002078-太阳纸业.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7521,4 +7522,1580 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005267</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实价值精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>78.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5302</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010273</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>57.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.2215</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012533</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>55.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.9889</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011518</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实价值臻选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>38.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2543</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1822</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>070019</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>30.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.7345</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001878</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>32.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3154</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2284</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010190</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实价值发现三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1190</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7602</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6822</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010728</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.43</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4649</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4584</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004355</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4295</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000574</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4181</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009591</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4180</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3415</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010274</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2567</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>920002</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中金精选股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2485</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003715</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>宝盈消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2329</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012002</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2162</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012534</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1842</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011767</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰康合润混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>13.52</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1839</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001583</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1555</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010729</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010617</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>70.88</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009592</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010618</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>70.88</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001219</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>上投摩根动态多因子策略混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011768</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>泰康合润混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006675</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006676</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007574</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>920922</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中金精选股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004606</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>上投摩根优选多因子股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002078-太阳纸业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002078-太阳纸业.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9098,4 +9099,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>40</v>
+      </c>
+      <c r="D2" t="n">
+        <v>26.53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>34</v>
+      </c>
+      <c r="D3" t="n">
+        <v>21.91</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>96</v>
+      </c>
+      <c r="D4" t="n">
+        <v>47.57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>52</v>
+      </c>
+      <c r="D5" t="n">
+        <v>23.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002078-太阳纸业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002078-太阳纸业.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9107,7 +9108,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9118,17 +9119,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9138,14 +9159,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>40</v>
-      </c>
-      <c r="D2" t="n">
-        <v>26.53</v>
+          <t>005267</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实价值精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>65.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3512</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -9154,14 +9197,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>34</v>
-      </c>
-      <c r="D3" t="n">
-        <v>21.91</v>
+          <t>010273</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>54.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0914</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -9170,14 +9235,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>96</v>
-      </c>
-      <c r="D4" t="n">
-        <v>47.57</v>
+          <t>012533</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>57.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.9068</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -9186,13 +9273,1707 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011518</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实价值臻选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>35.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1641</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010190</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实价值发现三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>35.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7309</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>070019</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6671</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3168</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001878</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>31.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2629</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8182</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6554</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.43</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6174</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004355</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4121</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3906</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009130</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>31.98</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>24.21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3230</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000574</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2983</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2982</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011905</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信价值启航混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2920</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011521</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏扬景源一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>33.17</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>24.37</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2654</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010274</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2607</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>920002</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中金精选股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2386</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012002</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2350</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005392</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2050</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003715</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>宝盈消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2012</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009911</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1980</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011767</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>泰康合润混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>13.52</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1947</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012534</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1798</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009428</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>21.48</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>24.67</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1138</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000963</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>兴业多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1124</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001272</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>兴业聚利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1117</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008477</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>安信价值驱动三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0787</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001577</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实低价策略股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001185</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>36.12</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001583</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011522</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏扬景源一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>24.37</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009429</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>24.67</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002029</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>36.12</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009131</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>24.21</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011768</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>泰康合润混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006675</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011906</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>安信价值启航混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006676</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>920922</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中金精选股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007574</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>750005</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>52.14</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002035</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>52.14</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>45</v>
+      </c>
+      <c r="D2" t="n">
+        <v>25.44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>40</v>
+      </c>
+      <c r="D3" t="n">
+        <v>26.53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>34</v>
+      </c>
+      <c r="D4" t="n">
+        <v>21.91</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>96</v>
+      </c>
+      <c r="D5" t="n">
+        <v>47.57</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>52</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>23.3</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002078-太阳纸业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002078-太阳纸业.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10872,7 +10873,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10883,17 +10884,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -10903,14 +10924,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>45</v>
-      </c>
-      <c r="D2" t="n">
-        <v>25.44</v>
+          <t>005267</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实价值精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>65.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.0861</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -10919,14 +10962,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>40</v>
-      </c>
-      <c r="D3" t="n">
-        <v>26.53</v>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.1085</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -10935,14 +11000,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>34</v>
-      </c>
-      <c r="D4" t="n">
-        <v>21.91</v>
+          <t>010273</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>47.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.0691</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -10951,14 +11038,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>96</v>
-      </c>
-      <c r="D5" t="n">
-        <v>47.57</v>
+          <t>012533</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>50.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.8470</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -10967,13 +11076,1723 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>011518</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实价值臻选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>35.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.5403</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012344</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>68.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.0766</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.9571</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013776</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中泰兴为价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.9396</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>070019</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>27.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.9119</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010190</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实价值发现三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>33.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.8244</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.75</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.6454</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001878</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>23.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.2535</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1788</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013777</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中泰兴为价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8318</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>070003</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实稳健混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>24.15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>70.47</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7897</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7341</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004355</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6187</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010728</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5059</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4804</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>671010</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3436</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010274</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.91</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2577</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011521</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏扬景源一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>33.78</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>21.39</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2500</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>920002</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中金精选股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2366</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012002</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2068</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012534</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1792</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000574</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1728</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003715</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>宝盈消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001577</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实低价策略股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.79</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010729</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001707</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011060</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000963</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>兴业多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>75.34</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012153</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>75.28</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011522</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏扬景源一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>21.39</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005041</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>人保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009766</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>39.45</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012345</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>920922</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中金精选股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012154</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>75.28</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007574</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009767</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>39.45</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>750005</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>65.16</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005042</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>人保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002035</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>65.16</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>46</v>
+      </c>
+      <c r="D2" t="n">
+        <v>37.82</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>45</v>
+      </c>
+      <c r="D3" t="n">
+        <v>25.44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>40</v>
+      </c>
+      <c r="D4" t="n">
+        <v>26.53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>34</v>
+      </c>
+      <c r="D5" t="n">
+        <v>21.91</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>96</v>
+      </c>
+      <c r="D6" t="n">
+        <v>47.57</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>52</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>23.3</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002078-太阳纸业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002078-太阳纸业.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12675,7 +12676,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12686,17 +12687,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -12706,14 +12727,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>46</v>
-      </c>
-      <c r="D2" t="n">
-        <v>37.82</v>
+          <t>005267</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实价值精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>51.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.6608</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -12722,14 +12765,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>45</v>
-      </c>
-      <c r="D3" t="n">
-        <v>25.44</v>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.6121</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -12738,14 +12803,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>40</v>
-      </c>
-      <c r="D4" t="n">
-        <v>26.53</v>
+          <t>010273</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>50.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.4631</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -12754,14 +12841,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>34</v>
-      </c>
-      <c r="D5" t="n">
-        <v>21.91</v>
+          <t>012533</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>54.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.2343</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -12770,14 +12879,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>96</v>
-      </c>
-      <c r="D6" t="n">
-        <v>47.57</v>
+          <t>011518</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实价值臻选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>30.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.3207</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -12786,13 +12917,1245 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>012940</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.3081</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.2842</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010190</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实价值发现三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>34.68</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.9698</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013776</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中泰兴为价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.9655</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.38</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.7938</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>070019</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>25.55</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.7859</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012344</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>55.75</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.62</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.7673</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001878</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>25.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.3541</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8388</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160527</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>20.37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.32</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8331</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.61</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8064</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013777</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中泰兴为价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6750</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004355</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.21</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5945</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010728</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5463</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3457</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010274</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.42</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3257</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>920002</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中金精选股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2556</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012534</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.71</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2037</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012002</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1793</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001479</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中邮风格轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1672</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000545</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中邮核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1663</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010729</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001707</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005041</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>人保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>160528</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.32</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012345</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>84.62</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>920922</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中金精选股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005042</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>人保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014536</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D2" t="n">
+        <v>38.71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>46</v>
+      </c>
+      <c r="D3" t="n">
+        <v>37.82</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>45</v>
+      </c>
+      <c r="D4" t="n">
+        <v>25.44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>40</v>
+      </c>
+      <c r="D5" t="n">
+        <v>26.53</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>34</v>
+      </c>
+      <c r="D6" t="n">
+        <v>21.91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>96</v>
+      </c>
+      <c r="D7" t="n">
+        <v>47.57</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>52</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>23.3</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002078-太阳纸业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002078-太阳纸业.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D2" t="n">
-        <v>38.71</v>
+        <v>35.76</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D3" t="n">
-        <v>37.82</v>
+        <v>38.71</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4" t="n">
-        <v>25.44</v>
+        <v>37.82</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D5" t="n">
-        <v>26.53</v>
+        <v>25.44</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D6" t="n">
-        <v>21.91</v>
+        <v>26.53</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="D7" t="n">
-        <v>47.57</v>
+        <v>21.91</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>96</v>
+      </c>
+      <c r="D8" t="n">
+        <v>47.57</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>52</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>23.3</v>
       </c>
     </row>
@@ -600,6 +617,1734 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3924</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005267</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实价值精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.3382</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010273</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>40.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.9127</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012533</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>43.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.8256</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.2032</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011518</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实价值臻选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.1583</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012940</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.67</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.1423</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010190</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实价值发现三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>37.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.9291</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>070019</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.6572</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012344</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>46.88</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.6455</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.3604</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001878</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.2595</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013776</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中泰兴为价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1432</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160527</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.93</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>97.11</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7737</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7511</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012001</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7382</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004355</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5873</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013777</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中泰兴为价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5456</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010728</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4263</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010274</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3072</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2289</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003715</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>宝盈消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2064</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012534</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1846</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013624</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实价值创造三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1777</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000545</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中邮核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>74.59</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1695</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012002</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1596</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001479</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中邮风格轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>80.97</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1556</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>016090</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.61</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0965</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010729</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0817</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013625</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实价值创造三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>160528</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>97.11</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012345</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011389</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国都聚成混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>78.46</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>016169</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005429</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>30.88</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006419</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>人保优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006420</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>人保优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005430</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>30.88</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1945,7 +3690,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3747,7 +5492,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5511,7 +7256,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7087,7 +8832,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8435,7 +10180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12132,7 +13877,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002078-太阳纸业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002078-太阳纸业.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" t="n">
-        <v>35.76</v>
+        <v>36.38</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D3" t="n">
-        <v>38.71</v>
+        <v>35.76</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D4" t="n">
-        <v>37.82</v>
+        <v>38.71</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5" t="n">
-        <v>25.44</v>
+        <v>37.82</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D6" t="n">
-        <v>26.53</v>
+        <v>25.44</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D7" t="n">
-        <v>21.91</v>
+        <v>26.53</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="D8" t="n">
-        <v>47.57</v>
+        <v>21.91</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,2062 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>96</v>
+      </c>
+      <c r="D9" t="n">
+        <v>47.57</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>52</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>23.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>51.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5445</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005267</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实价值精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1876</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>121005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银创新动力混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7650</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>070010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实主题精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>34.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3062</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005620</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1604</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>070019</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9584</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9509</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8223</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>74.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7668</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6411</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010190</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实价值发现三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5946</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000574</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5774</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001712</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方红优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.27</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5497</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>121006</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国投瑞银稳健增长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>72.13</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5351</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>920002</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中金精选股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4525</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004355</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3722</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009885</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>新华景气行业混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.42</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>46.37</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3533</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3503</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519158</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>新华趋势领航混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3347</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3315</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3315</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>501038</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华明择多策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.49</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3185</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>121002</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国投瑞银景气行业混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>71.48</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3044</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009843</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中金泰顺12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>61.34</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3020</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003715</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>宝盈消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2888</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005621</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中欧品质消费股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2751</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000584</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>新华鑫益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2733</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>519091</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>新华泛资源优势混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2511</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519089</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>新华优选成长混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2501</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>121008</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国投瑞银成长优选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2335</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001577</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实低价策略股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1325</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005660</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1139</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008303</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>宝盈龙头优选股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0901</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005661</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005910</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发龙头优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006675</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>21.51</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009886</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>新华景气行业混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>46.37</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000739</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>83.44</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>920922</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中金精选股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>21.51</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006676</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001515</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>83.44</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008304</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>宝盈龙头优选股票C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007574</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>700004</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>77.44</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002598</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>平安消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002599</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>平安消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +2666,1694 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006567</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>60.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.9941</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005267</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实价值精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>47.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.3616</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010273</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>41.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.0279</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012533</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>43.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.8464</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012940</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中泰星元价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.6935</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006624</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.3244</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011518</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实价值臻选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>27.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.1704</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010190</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实价值发现三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>38.99</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.0548</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>070019</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>22.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.6643</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007549</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3479</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013776</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中泰兴为价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1854</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8266</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160527</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17.43</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7791</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6816</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013777</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中泰兴为价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6080</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004355</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.31</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.57</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5915</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>970016</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中信建投价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.52</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5570</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010728</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4303</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>016090</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中泰玉衡价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3652</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010274</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3172</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011437</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中泰开阳价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2158</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000545</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中邮核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.91</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2050</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012534</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1835</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013624</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实价值创造三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1783</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012002</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中泰星宇价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1529</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001479</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中邮风格轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1152</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>970017</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中信建投价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1067</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>016570</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实价值丰润混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>63.89</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010729</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中泰兴诚价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013625</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实价值创造三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>920011</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中金安心回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>79.41</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>160528</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011367</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>72.74</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>920008</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>920921</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中金安心回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>79.41</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>920928</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>161715</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>招商中证大宗商品股票指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>016571</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>嘉实价值丰润混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>63.89</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>016169</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011368</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>72.74</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006420</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>人保优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006419</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>人保优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>016168</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>嘉实丰和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>83.57</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2344,7 +6081,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3690,7 +7427,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5492,7 +9229,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7256,7 +10993,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8832,7 +12569,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10180,7 +13917,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13875,2036 +17612,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002621</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中欧消费主题股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>51.76</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.14</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.78</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.5445</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005267</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>嘉实价值精选股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>44.92</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.79</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.1876</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>121005</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国投瑞银创新动力混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>27.07</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>87.08</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.52</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.7650</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>070010</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>嘉实主题精选混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>34.74</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.95</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.3062</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005620</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中欧品质消费股票A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>12.78</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.22</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>9.08</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.1604</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>070019</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>嘉实价值优势混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>19.56</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.9584</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002697</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中欧消费主题股票C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>10.83</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.14</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>8.78</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.9509</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001044</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>嘉实新消费股票</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>15.06</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.66</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.46</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.8223</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>161219</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>国投瑞银新兴产业混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>14.07</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>74.23</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.45</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.7668</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001218</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>国投瑞银精选收益灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>11.53</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>86.88</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.56</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.6411</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>010190</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>嘉实价值发现三个月定期开放混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>12.06</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>98.35</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.5946</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>000574</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>宝盈新价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>7.20</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>8.02</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.5774</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001712</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>东方红优势精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>15.27</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.44</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.5497</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>121006</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>国投瑞银稳健增长混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>10.04</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>72.13</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>5.33</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.5351</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>920002</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>中金精选股票A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>90.40</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>7.98</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.4525</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>004355</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>嘉实丰和灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>7.43</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>90.57</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.3722</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>009885</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>新华景气行业混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>14.42</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>46.37</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.3533</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>004235</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>中欧价值智选回报混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>5.79</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>92.55</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.3503</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>519158</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>新华趋势领航混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>7.73</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>94.31</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.3347</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>001887</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>中欧价值智选回报混合E</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>5.48</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>92.55</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.3315</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>166019</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>中欧价值智选回报混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>5.48</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>92.55</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.3315</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>501038</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>银华明择多策略定期开放混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>84.49</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>5.91</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.3185</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>121002</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>国投瑞银景气行业混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>9.06</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>71.48</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.3044</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>009843</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>中金泰顺12个月定期开放混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>10.67</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>61.34</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.3020</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>003715</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>宝盈消费主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>93.78</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>8.86</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.2888</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>005621</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>中欧品质消费股票C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>92.22</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>9.08</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.2751</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>000584</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>新华鑫益灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>6.40</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>93.40</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.2733</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>519091</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>新华泛资源优势混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>6.11</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>79.97</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.2511</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>519089</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>新华优选成长混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>91.73</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.2501</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>121008</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>国投瑞银成长优选混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>6.54</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>90.42</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.2335</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>001577</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>嘉实低价策略股票</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>93.28</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.1325</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>005660</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>嘉实资源精选股票A</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>93.93</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>5.04</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.1139</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>008303</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>宝盈龙头优选股票A</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>90.42</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0901</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>700001</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>平安行业先锋混合</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>92.42</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0796</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>004814</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>中欧红利优享灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0724</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>005661</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>嘉实资源精选股票C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>93.93</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>5.04</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0706</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>006624</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>中泰玉衡价值优选混合</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>81.24</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0551</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>005910</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>广发龙头优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>94.10</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0504</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>006675</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>宝盈品牌消费股票A</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>9.01</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0396</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>003626</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>平安鑫利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>5.94</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>21.51</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0392</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>009886</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>新华景气行业混合C</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>46.37</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0262</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>000739</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>平安新鑫先锋混合A</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>83.44</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0227</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>920922</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>中金精选股票C</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>90.40</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>7.98</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0223</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>006433</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>平安鑫利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>21.51</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0170</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>004815</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>中欧红利优享灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0151</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>006676</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>宝盈品牌消费股票C</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>9.01</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0135</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>001515</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>平安新鑫先锋混合C</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>83.44</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0134</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>008304</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>宝盈龙头优选股票C</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>90.42</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0111</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>007574</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>宝盈新价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>8.02</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0096</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>700004</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>平安灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>77.44</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0095</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>002598</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>平安消费精选混合A</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>90.92</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0061</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>002599</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>平安消费精选混合C</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>90.92</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0034</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>